--- a/templates/client_summary_template.xlsx
+++ b/templates/client_summary_template.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\grachev\Yandex.Disk\Работа\ОнлайнБрокер\soft\onlineservice\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D29EDA6-7888-4D8D-9B0B-2A3AB541B0F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E82F8895-EADA-46A4-ADF7-909CC432F704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="summary_template_sheet" sheetId="1" r:id="rId1"/>
-    <sheet name="tech_info" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">summary_template_sheet!$A$1:$Q$11</definedName>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>Свод котировок и условий по заявке №</t>
   </si>
@@ -80,82 +79,10 @@
     <t>1 год</t>
   </si>
   <si>
-    <t>Технические данные</t>
-  </si>
-  <si>
-    <t>Заявка:</t>
-  </si>
-  <si>
-    <t>ИНН:</t>
-  </si>
-  <si>
-    <t>Филиал:</t>
-  </si>
-  <si>
-    <t>Тип страхования:</t>
-  </si>
-  <si>
-    <t>Информация о предмете лизинга:</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Запрос делался по следующим параметрам:</t>
-  </si>
-  <si>
-    <t>Данные о клиенте</t>
-  </si>
-  <si>
-    <t>Данные об условиях запроса</t>
-  </si>
-  <si>
-    <t>Лизингополучатель:</t>
-  </si>
-  <si>
-    <t>Франшиза:</t>
-  </si>
-  <si>
-    <t>Рассрочка:</t>
-  </si>
-  <si>
-    <t>Заправшиваемые риски:</t>
-  </si>
-  <si>
-    <t>Банк-кредитор:</t>
-  </si>
-  <si>
-    <t>Цели использования:</t>
-  </si>
-  <si>
-    <t>Автозапуск:</t>
-  </si>
-  <si>
-    <t>Комплектность ключей:</t>
-  </si>
-  <si>
-    <t>ПТС / ПСМ:</t>
-  </si>
-  <si>
-    <t>Телематический комплекс:</t>
-  </si>
-  <si>
-    <t>Доп. параметры для КАСКО\СТ</t>
-  </si>
-  <si>
-    <t>Территория страхования:</t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Доп. параметры для имущества</t>
-  </si>
-  <si>
-    <t>Наличие перевозки:</t>
-  </si>
-  <si>
-    <t>Наличие СМР</t>
   </si>
   <si>
     <t>Выбрана СК:</t>
@@ -180,51 +107,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial Cyr"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <u/>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="14"/>
@@ -366,7 +253,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -441,18 +328,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -547,227 +428,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="10" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="12" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="13" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="13" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="15" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="17" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="18" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="19" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="17" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="18" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1941,362 +1769,368 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.42578125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="22.85546875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="2.85546875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="13" style="13" customWidth="1"/>
-    <col min="10" max="10" width="2.85546875" style="13" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="13" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="13" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" style="13" customWidth="1"/>
-    <col min="14" max="14" width="15" style="13" customWidth="1"/>
-    <col min="15" max="15" width="13" style="13" customWidth="1"/>
-    <col min="16" max="16" width="2.85546875" style="13" customWidth="1"/>
-    <col min="17" max="17" width="29.5703125" style="13" customWidth="1"/>
-    <col min="18" max="18" width="2.85546875" style="13" customWidth="1"/>
-    <col min="19" max="20" width="13.5703125" style="13" customWidth="1"/>
-    <col min="21" max="21" width="9" style="13" customWidth="1"/>
-    <col min="22" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="34.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13" style="3" customWidth="1"/>
+    <col min="10" max="10" width="2.85546875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="3" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="3" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="3" customWidth="1"/>
+    <col min="14" max="14" width="15" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13" style="3" customWidth="1"/>
+    <col min="16" max="16" width="2.85546875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="29.5703125" style="3" customWidth="1"/>
+    <col min="18" max="18" width="2.85546875" style="3" customWidth="1"/>
+    <col min="19" max="20" width="13.5703125" style="3" customWidth="1"/>
+    <col min="21" max="21" width="9" style="3" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="56"/>
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="12"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="67"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="2"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="61"/>
     </row>
     <row r="2" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="70"/>
-      <c r="C2" s="71" t="s">
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="66"/>
-      <c r="T2" s="68"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="60"/>
+      <c r="T2" s="62"/>
     </row>
     <row r="3" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="71" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="58" t="s">
-        <v>45</v>
-      </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="16"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="70"/>
-      <c r="C4" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="16"/>
+      <c r="A4" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="48"/>
+      <c r="C4" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="37"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="6"/>
     </row>
     <row r="5" spans="1:20" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="56"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="54"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="16"/>
+      <c r="B5" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="40"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="6"/>
     </row>
     <row r="6" spans="1:20" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="19"/>
+      <c r="A6" s="7"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="9"/>
     </row>
     <row r="7" spans="1:20" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="73" t="s">
+      <c r="A7" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="74"/>
-      <c r="I7" s="73" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="20"/>
-      <c r="K7" s="73" t="s">
+      <c r="J7" s="10"/>
+      <c r="K7" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
-      <c r="O7" s="73" t="s">
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="46"/>
+      <c r="O7" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="19"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="9"/>
     </row>
     <row r="8" spans="1:20" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23"/>
-      <c r="E8" s="22" t="s">
+      <c r="D8" s="13"/>
+      <c r="E8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="22" t="s">
+      <c r="G8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="74"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="22" t="s">
+      <c r="H8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="46"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="22" t="s">
+      <c r="L8" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="M8" s="22" t="s">
+      <c r="M8" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="O8" s="74"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="24" t="s">
+      <c r="N8" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="46"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="R8" s="23"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="25"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="15"/>
     </row>
     <row r="9" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="28"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="30"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="20"/>
     </row>
     <row r="10" spans="1:20" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="35">
         <v>2000000</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="41">
+      <c r="D10" s="18"/>
+      <c r="E10" s="27">
         <f>F10/C10</f>
         <v>0.05</v>
       </c>
-      <c r="F10" s="42">
+      <c r="F10" s="28">
         <v>100000</v>
       </c>
-      <c r="G10" s="43">
+      <c r="G10" s="29">
         <v>0</v>
       </c>
-      <c r="H10" s="43">
+      <c r="H10" s="29">
         <v>1</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="22">
         <f>SUM(F10:F10)</f>
         <v>100000</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="44">
+      <c r="J10" s="18"/>
+      <c r="K10" s="30">
         <f>L10/C10</f>
         <v>3.7499999999999999E-2</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="31">
         <v>75000</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="32">
         <v>50000</v>
       </c>
-      <c r="N10" s="47">
+      <c r="N10" s="33">
         <v>1</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="22">
         <f>SUM(L10:L10)</f>
         <v>75000</v>
       </c>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="33" t="s">
-        <v>24</v>
-      </c>
-      <c r="R10" s="28"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="30"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="20"/>
     </row>
     <row r="11" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35"/>
-      <c r="K11" s="35"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="35"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="35"/>
-      <c r="P11" s="35"/>
-      <c r="Q11" s="35"/>
-      <c r="R11" s="35"/>
-      <c r="S11" s="35"/>
-      <c r="T11" s="36"/>
+      <c r="A11" s="24"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+      <c r="S11" s="25"/>
+      <c r="T11" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="K1:N2"/>
+    <mergeCell ref="S1:T2"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:G2"/>
     <mergeCell ref="O7:O8"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:G3"/>
@@ -2306,12 +2140,6 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A7:C7"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="K1:N2"/>
-    <mergeCell ref="S1:T2"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="50" orientation="landscape" r:id="rId1"/>
@@ -2320,265 +2148,4 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B38"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="50.85546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="76" style="10" customWidth="1"/>
-    <col min="3" max="3" width="9" style="10" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="10"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="37"/>
-      <c r="B1" s="37"/>
-    </row>
-    <row r="2" spans="1:2" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-    </row>
-    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1"/>
-    </row>
-    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="50" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="1"/>
-    </row>
-    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="143.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-    </row>
-    <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="37"/>
-      <c r="B25" s="38"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;11&amp;K000000&amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>